--- a/Finance verte.xlsx
+++ b/Finance verte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Popcorn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6E53FE-D835-4F18-9AB8-87A02B0D3C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACFCF3C-BBF7-40F8-BC42-7A7A7053AF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{143CC39E-E5C7-42CB-B207-3E7F29217F50}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{143CC39E-E5C7-42CB-B207-3E7F29217F50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="129">
   <si>
     <t>Country</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -389,13 +389,350 @@
   <si>
     <t>2618.TW</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kinder Morgan est une entreprise américaine spécialisée dans les infrastructures énergétiques, basée à Houston, Texas. Elle se concentre sur le transport et le stockage de pétrole et de gaz naturel, avec environ 137 000 km de pipelines et 143 terminaux.</t>
+  </si>
+  <si>
+    <t>ANA Holdings Inc. est le plus grand groupe aérien du Japon, basé dans le quartier Shiodome à Tokyo.</t>
+  </si>
+  <si>
+    <t>Allegro est l’une des plus grandes plateformes de commerce en ligne en Europe, basée à Poznań, Pologne.</t>
+  </si>
+  <si>
+    <t>Admiral est une société de services financiers britannique basée à Cardiff, fondée en 1991, offrant principalement des assurances auto et habitation.</t>
+  </si>
+  <si>
+    <t>Plan ESG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dans le cadre de ses initiatives ESG, le groupe s’engage en faveur du développement durable. Il a établi des engagements ESG à l’horizon 2050, visant la neutralité carbone de ses activités aériennes. ANA promeut activement le carburant d’aviation durable (SAF), en collaboration avec Euglena Co. pour développer des biocarburants à base d’algues, avec des installations établies à Yokohama.</t>
+  </si>
+  <si>
+    <t>Mediobanca est une banque d’investissement italienne fondée à Milan en 1946.</t>
+  </si>
+  <si>
+    <t>Ajinomoto est une multinationale agroalimentaire et biotechnologique japonaise fondée en 1909 à Tokyo.</t>
+  </si>
+  <si>
+    <t>Temenos est une entreprise de logiciels bancaires basée à Genève, Suisse, fondée en 1993.</t>
+  </si>
+  <si>
+    <t>EVA Air est une compagnie aérienne internationale taïwanaise fondée en 1989, offrant des services passagers et cargo à l’échelle mondiale.</t>
+  </si>
+  <si>
+    <t>Elle s’engage à réduire ses émissions de carbone, utilise du SAF, et optimise ses itinéraires pour l'efficacité énergétique. Sur le plan social, elle soutient des projets éducatifs et caritatifs et favorise la diversité et l’inclusion parmi ses employés.</t>
+  </si>
+  <si>
+    <t>AB Sagax est une société d’investissement immobilier suédoise basée à Stockholm, spécialisée dans les propriétés industrielles et logistiques.</t>
+  </si>
+  <si>
+    <t>Selon son rapport de durabilité 2022, elle a installé cinq nouvelles installations solaires et réalisé huit rénovations durables. L’entreprise met aussi en œuvre diverses mesures d’économie d’énergie et promeut la diversité et l’inclusion dans son personnel.</t>
+  </si>
+  <si>
+    <t>Avery Dennison est une entreprise mondiale de science des matériaux et de solutions d’identification numérique, fondée en 1935 et basée dans l’Ohio, USA.</t>
+  </si>
+  <si>
+    <t>Elle œuvre à réduire son empreinte carbone, à utiliser des matériaux durables et à optimiser sa production. Sur le plan social, elle soutient la diversité, l’éducation et les formations technologiques via sa fondation caritative.</t>
+  </si>
+  <si>
+    <t>Poste Italiane est le plus grand groupe de services intégrés d’Italie, fondé en 1862 et basé à Rome.</t>
+  </si>
+  <si>
+    <t>Elle s’efforce de réduire son empreinte carbone, d’utiliser des énergies renouvelables et d’optimiser ses processus. Elle soutient également des projets éducatifs et sociaux et favorise la diversité en interne.</t>
+  </si>
+  <si>
+    <t>Banco BPM est le troisième plus grand groupe bancaire italien, issu de la fusion de Banco Popolare et Banca Popolare di Milano en 2017.</t>
+  </si>
+  <si>
+    <t>Holcim est un leader mondial suisse dans la fabrication de matériaux de construction, fondé en 1912.</t>
+  </si>
+  <si>
+    <t>Elle met l’accent sur la réduction des émissions, l’utilisation d’énergies renouvelables et l’efficacité de ses processus. Elle soutient aussi des initiatives sociales et éducatives, et encourage un environnement de travail inclusif.</t>
+  </si>
+  <si>
+    <t>CapitalLand Ascendas REIT est la première foncière cotée de Singapour spécialisée dans les espaces d’affaires et l’immobilier industriel.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Elle s’engage à atteindre la neutralité carbone d’ici 2050 et a publié un plan de transition détaillé. Socialement, elle promeut l’égalité des genres en signant la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Women in Finance Charter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> plusieurs années de suite, et améliore l’environnement de travail grâce à des programmes internes comme le </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"Fun Ministry"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">En 2023, elle a émis 300 millions SGD d’obligations vertes et a organisé un concours de durabilité avec Terra SG. Elle a obtenu une note de 13,5 par </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sustainalytics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, la classant comme à faible risque et parmi les 25 % meilleurs du secteur immobilier mondial.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Elle s’est fixée des objectifs basés sur la science pour réduire ses émissions de gaz à effet de serre d’ici 2030, en accord avec l’Accord de Paris. Ses performances ESG lui ont valu une inclusion continue dans les indices </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Dow Jones Sustainability Index (DJSI)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> et </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FTSE4Good</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Elle figure sur la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"Climate Change A List"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> du CDP pour la quatrième année consécutive et a rejoint l’initiative internationale </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>RE100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, s’engageant à utiliser 100 % d’énergie renouvelable. En partenariat avec Danone, elle utilise son produit </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>AjiPro®-L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> pour réduire les émissions agricoles, réduisant les émissions de protoxyde d’azote d’environ 25 % et améliorant l'efficacité des additifs anti-méthane de 30 %.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L’entreprise a atteint la neutralité carbone en 2023 et a rejoint la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Net-Zero Banking Alliance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> des Nations Unies. Durant l’exercice 2022-2023, tous les nouveaux investissements en gestion d’actifs ont été sélectionnés selon des critères financiers et ESG. De plus, 100 % de l’énergie utilisée provient de sources renouvelables.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">En 2023, elle a publié un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>cadre d’obligations vertes, sociales et durables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, avec un avis positif de ISS ESG. Elle soutient les projets d’énergies renouvelables et vise la neutralité carbone. Socialement, elle promeut la diversité et met en place des programmes internes pour la satisfaction des employés.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dans le domaine ESG, Allegro s’est fixé des objectifs environnementaux visant une réduction de 38 % de ses émissions de gaz à effet de serre d’ici 2030. L’entreprise encourage également les emballages durables, avec 3,7 millions de colis durables fournis en 2022. Sur le plan social, elle a lancé le programme </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"TOP WOMEN in e-business"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> pour soutenir les femmes dans le secteur du commerce en ligne.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kinder Morgan a entrepris des efforts notables pour améliorer son profil de durabilité. Elle a acquis des actifs pétroliers et gaziers dans l’ouest du Texas avec l’intention de tirer parti des incitations à la capture du carbone, en visant une augmentation de la production grâce à l’injection de CO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>₂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> pour améliorer la récupération du pétrole. Elle prévoit également de céder certains actifs pétroliers traditionnels afin de se concentrer sur des projets plus stratégiques, alignés sur la transition énergétique.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +772,32 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -473,7 +836,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -488,6 +851,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5315B1C-8FCF-4906-BAA2-D53CE5F82CB7}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="51" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -817,9 +1186,10 @@
     <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="56.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="234.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,8 +1208,14 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -858,8 +1234,20 @@
       <c r="F2" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -878,8 +1266,24 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="G3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -898,8 +1302,20 @@
       <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -918,8 +1334,20 @@
       <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -938,8 +1366,20 @@
       <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -958,8 +1398,24 @@
       <c r="F7" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -978,8 +1434,20 @@
       <c r="F8" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -998,8 +1466,20 @@
       <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1018,8 +1498,20 @@
       <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -1038,8 +1530,20 @@
       <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1058,8 +1562,20 @@
       <c r="F12" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1078,8 +1594,20 @@
       <c r="F13" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -1098,8 +1626,20 @@
       <c r="F14" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1118,8 +1658,24 @@
       <c r="F15" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="G15" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -1138,8 +1694,20 @@
       <c r="F16" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
@@ -1158,8 +1726,24 @@
       <c r="F17" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>58</v>
       </c>
@@ -1178,8 +1762,24 @@
       <c r="F18" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
@@ -1198,8 +1798,24 @@
       <c r="F19" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G19" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1218,8 +1834,24 @@
       <c r="F20" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="G20" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>65</v>
       </c>
@@ -1238,8 +1870,24 @@
       <c r="F21" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="G21" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="1:18" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -1258,8 +1906,24 @@
       <c r="F22" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="G22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="1:18" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -1278,8 +1942,24 @@
       <c r="F23" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G23" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>74</v>
       </c>
@@ -1298,8 +1978,24 @@
       <c r="F24" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="G24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="1:18" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -1318,8 +2014,20 @@
       <c r="F25" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:18" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
@@ -1338,8 +2046,24 @@
       <c r="F26" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G26" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
@@ -1358,8 +2082,20 @@
       <c r="F27" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
@@ -1378,8 +2114,20 @@
       <c r="F28" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
@@ -1398,8 +2146,24 @@
       <c r="F29" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G29" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>16</v>
       </c>
@@ -1418,6 +2182,36 @@
       <c r="F30" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="G30" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Finance verte.xlsx
+++ b/Finance verte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Popcorn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACFCF3C-BBF7-40F8-BC42-7A7A7053AF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402F4D18-B74E-459E-A9A2-314558252441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{143CC39E-E5C7-42CB-B207-3E7F29217F50}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="159">
   <si>
     <t>Country</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -458,250 +458,6 @@
   <si>
     <t>CapitalLand Ascendas REIT est la première foncière cotée de Singapour spécialisée dans les espaces d’affaires et l’immobilier industriel.</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Elle s’engage à atteindre la neutralité carbone d’ici 2050 et a publié un plan de transition détaillé. Socialement, elle promeut l’égalité des genres en signant la </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Women in Finance Charter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> plusieurs années de suite, et améliore l’environnement de travail grâce à des programmes internes comme le </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"Fun Ministry"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">En 2023, elle a émis 300 millions SGD d’obligations vertes et a organisé un concours de durabilité avec Terra SG. Elle a obtenu une note de 13,5 par </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Sustainalytics</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, la classant comme à faible risque et parmi les 25 % meilleurs du secteur immobilier mondial.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Elle s’est fixée des objectifs basés sur la science pour réduire ses émissions de gaz à effet de serre d’ici 2030, en accord avec l’Accord de Paris. Ses performances ESG lui ont valu une inclusion continue dans les indices </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Dow Jones Sustainability Index (DJSI)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> et </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>FTSE4Good</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Elle figure sur la </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"Climate Change A List"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> du CDP pour la quatrième année consécutive et a rejoint l’initiative internationale </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>RE100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, s’engageant à utiliser 100 % d’énergie renouvelable. En partenariat avec Danone, elle utilise son produit </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>AjiPro®-L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> pour réduire les émissions agricoles, réduisant les émissions de protoxyde d’azote d’environ 25 % et améliorant l'efficacité des additifs anti-méthane de 30 %.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">L’entreprise a atteint la neutralité carbone en 2023 et a rejoint la </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Net-Zero Banking Alliance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> des Nations Unies. Durant l’exercice 2022-2023, tous les nouveaux investissements en gestion d’actifs ont été sélectionnés selon des critères financiers et ESG. De plus, 100 % de l’énergie utilisée provient de sources renouvelables.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">En 2023, elle a publié un </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>cadre d’obligations vertes, sociales et durables</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, avec un avis positif de ISS ESG. Elle soutient les projets d’énergies renouvelables et vise la neutralité carbone. Socialement, elle promeut la diversité et met en place des programmes internes pour la satisfaction des employés.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dans le domaine ESG, Allegro s’est fixé des objectifs environnementaux visant une réduction de 38 % de ses émissions de gaz à effet de serre d’ici 2030. L’entreprise encourage également les emballages durables, avec 3,7 millions de colis durables fournis en 2022. Sur le plan social, elle a lancé le programme </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"TOP WOMEN in e-business"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> pour soutenir les femmes dans le secteur du commerce en ligne.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -726,6 +482,141 @@
       </rPr>
       <t xml:space="preserve"> pour améliorer la récupération du pétrole. Elle prévoit également de céder certains actifs pétroliers traditionnels afin de se concentrer sur des projets plus stratégiques, alignés sur la transition énergétique.</t>
     </r>
+  </si>
+  <si>
+    <t>EQT Corporation est le plus grand producteur de gaz naturel aux États-Unis, basé à Pittsburgh, et opérant principalement dans les Appalaches. L'entreprise joue un rôle clé dans la transition énergétique grâce à ses capacités d'extraction à faible émission.</t>
+  </si>
+  <si>
+    <t>Arista Networks est une entreprise technologique américaine spécialisée dans les solutions de réseaux cloud haute performance, basée à Santa Clara, Californie. Elle fournit des équipements et logiciels à des clients dans les télécoms, la finance et les data centers.</t>
+  </si>
+  <si>
+    <t>Arista vise une réduction de ses émissions en améliorant l’efficacité énergétique de ses produits. Elle publie des rapports ESG détaillant ses objectifs environnementaux et ses progrès. Sur le plan social, Arista soutient l'inclusion des femmes et des minorités dans les filières techniques. Elle applique également des normes rigoureuses de gouvernance d’entreprise.</t>
+  </si>
+  <si>
+    <t>Advantech est une entreprise taïwanaise de technologie industrielle, leader dans les systèmes embarqués et les solutions IoT, fondée à Taipei. Elle opère mondialement dans les secteurs de l’automatisation, de la santé et des infrastructures intelligentes.</t>
+  </si>
+  <si>
+    <t>Advantech s’est fixé pour objectif de réduire de 50 % ses émissions d'ici 2030. Elle développe des produits éco-responsables et conçoit des usines intelligentes optimisées pour l’énergie. L’entreprise soutient des programmes éducatifs dans les sciences et technologies. Un comité ESG dédié pilote ses actions de durabilité.</t>
+  </si>
+  <si>
+    <t>Advantest est un fabricant japonais d’équipements de test de semi-conducteurs, basé à Tokyo. Il est essentiel à la chaîne de production de composants électroniques dans les secteurs de l’IA, de l’automobile et de l’informatique.</t>
+  </si>
+  <si>
+    <t>L'entreprise vise la neutralité carbone d'ici 2050 et est membre de l’initiative RE100 pour l’énergie 100 % renouvelable. Elle conçoit des produits à faible consommation d’énergie pour réduire l’impact environnemental global de ses clients. Sur le plan social, elle soutient la formation technologique et les actions locales.</t>
+  </si>
+  <si>
+    <t>Agricultural Bank of China est l'une des plus grandes banques commerciales de Chine, offrant des services bancaires variés à l’échelle nationale et internationale depuis Pékin. Elle joue un rôle crucial dans le financement agricole et rural en Chine.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>La banque renforce ses prêts verts pour soutenir des projets de transition écologique. Elle met en place une gouvernance ESG pour guider ses investissements responsables. Elle soutient l’inclusion financière, notamment auprès des zones rurales défavorisées. Elle favorise la parité et l’égalité des chances en interne via des programmes dédiés.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Airbus est un leader mondial de l’aéronautique, de la défense et de l’espace, basé à Toulouse, en France. Il conçoit et fabrique des avions civils, des hélicoptères et des satellites.</t>
+  </si>
+  <si>
+    <t>Airbus s’est engagé à développer l’aviation zéro émission d’ici 2035 avec son projet d’avion hydrogène. Il investit massivement dans les carburants durables (SAF) et l’électrification. Sur le plan social, Airbus promeut une culture inclusive et diversifiée, avec des objectifs chiffrés.</t>
+  </si>
+  <si>
+    <t>AngloGold Ashanti est un producteur d’or mondial basé à Johannesburg, avec des opérations en Afrique, en Amérique et en Australie. Il figure parmi les plus grands groupes miniers aurifères au monde.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’entreprise a réduit son intensité carbone de 43 % depuis 2007 et vise la neutralité d'ici 2050. Elle recycle l’eau de ses sites miniers et restaure les terres après exploitation. Socialement, elle soutient les communautés locales par la santé, l’éducation et les emplois. </t>
+  </si>
+  <si>
+    <t>Yihai Kerry Arawana est un groupe alimentaire chinois affilié à Wilmar, basé à Shenzhen. Il est spécialisé dans les huiles alimentaires, les produits céréaliers et les condiments pour le marché intérieur chinois.</t>
+  </si>
+  <si>
+    <t>L’entreprise lutte contre la déforestation par des politiques de traçabilité rigoureuses. Elle améliore l’efficacité énergétique de ses usines et réduit ses déchets organiques. Sur le plan social, elle soutient des initiatives de sécurité alimentaire et d'agriculture durable.</t>
+  </si>
+  <si>
+    <t>Arch Capital est un assureur et réassureur mondial basé aux Bermudes, actif dans l'assurance dommages, la réassurance et l’assurance hypothécaire. Il sert aussi bien des clients institutionnels que des particuliers.</t>
+  </si>
+  <si>
+    <t>L’entreprise intègre le climat dans son processus de souscription et ses décisions d’investissement. Elle met en place des pratiques responsables dans l’allocation de ses portefeuilles. Arch Capital soutient des causes sociales telles que l’éducation et l’accès aux soins. Elle promeut également la diversité et l’inclusion à travers des programmes internes.</t>
+  </si>
+  <si>
+    <t>Aflac est une compagnie d’assurance américaine spécialisée dans les couvertures santé complémentaires, fondée en 1955 et basée à Columbus, Géorgie. Elle est réputée pour ses paiements rapides et ses campagnes iconiques avec le canard Aflac.</t>
+  </si>
+  <si>
+    <t>Aflac soutient activement la lutte contre le cancer chez les enfants à travers sa fondation. Elle réduit son empreinte environnementale via des programmes d'efficacité énergétique. Elle est reconnue pour ses politiques d’égalité et d’inclusion, notamment en matière de genre.</t>
+  </si>
+  <si>
+    <t>AvalonBay est une société américaine spécialisée dans la gestion et la promotion immobilière résidentielle, basée à Arlington, Virginie. Elle gère des communautés résidentielles dans des régions urbaines majeures aux États-Unis.</t>
+  </si>
+  <si>
+    <t>L’entreprise conçoit des bâtiments éco-efficaces certifiés LEED et réduit l’empreinte carbone de ses opérations. Elle a pour objectif d’atteindre la neutralité carbone d’ici 2040. Sur le plan social, elle soutient les locataires à faible revenu à travers des partenariats associatifs. AvalonBay favorise également la diversité parmi ses employés et dirigeants.</t>
+  </si>
+  <si>
+    <t>BOC Aviation est une société de leasing d'avions basée à Singapour, affiliée à Bank of China. Elle possède une flotte d’avions modernes loués à des compagnies aériennes du monde entier.</t>
+  </si>
+  <si>
+    <t>La société privilégie les appareils à haute efficacité énergétique pour réduire les émissions indirectes. Elle intègre des critères ESG dans ses décisions d’investissement et de gestion de flotte. BOC Aviation publie des rapports de durabilité annuels alignés avec les standards mondiaux. Elle soutient aussi la formation aéronautique et la diversité dans le secteur.</t>
+  </si>
+  <si>
+    <t>Aon est une multinationale de services professionnels spécialisée dans les assurances, la gestion des risques et les solutions RH, basée à Dublin. Elle accompagne des entreprises dans plus de 120 pays.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aon s'engage à atteindre zéro émission nette d'ici 2030 sur ses opérations directes. Elle développe des produits pour aider ses clients à mieux gérer les risques climatiques. L’entreprise soutient des programmes pour la santé mentale et l’inclusion en entreprise. </t>
+  </si>
+  <si>
+    <t>Ares est une société américaine de gestion d’actifs alternatifs, basée à Los Angeles, opérant dans le crédit, l'immobilier, les infrastructures et le private equity. Elle gère des milliards d’actifs pour des investisseurs institutionnels.</t>
+  </si>
+  <si>
+    <t>Ares a lancé des fonds à impact axés sur l’énergie propre, l’inclusion et l’habitat abordable. Elle est signataire des PRI de l’ONU et applique une gouvernance ESG robuste. Elle mesure systématiquement l’impact environnemental et social de ses investissements. En interne, Ares favorise une culture d’inclusion et la formation ESG de ses équipes.</t>
+  </si>
+  <si>
+    <t>InterGlobe Aviation est la plus grande compagnie aérienne indienne en termes de parts de marché, basée à Gurgaon. Elle propose des vols domestiques et internationaux à bas coût.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InterGloba Aviation a signé un accord pour intégrer progressivement du carburant d’aviation durable (SAF) dans ses opérations. Elle renouvelle sa flotte avec des avions plus économes en carburant. L’entreprise soutient des programmes d’éducation pour les enfants défavorisés en Inde. Elle a également mis en place une gouvernance ESG structurée pour suivre ses objectifs à long terme.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EQT investit dans la capture et l'utilisation du CO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>₂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> pour accroître la récupération de pétrole tout en réduisant les émissions. Elle collabore aussi avec les communautés locales pour améliorer la sécurité et la qualité de vie.</t>
+    </r>
+  </si>
+  <si>
+    <t>Elle s’engage à atteindre la neutralité carbone d’ici 2050 et a publié un plan de transition détaillé. Socialement, elle promeut l’égalité des genres en signant la Women in Finance Charter plusieurs années de suite, et améliore l’environnement de travail grâce à des programmes internes comme le "Fun Ministry".</t>
+  </si>
+  <si>
+    <t>En 2023, elle a émis 300 millions SGD d’obligations vertes et a organisé un concours de durabilité avec Terra SG. Elle a obtenu une note de 13,5 par Sustainalytics, la classant comme à faible risque et parmi les 25 % meilleurs du secteur immobilier mondial.</t>
+  </si>
+  <si>
+    <t>Elle s’est fixée des objectifs basés sur la science pour réduire ses émissions de gaz à effet de serre d’ici 2030, en accord avec l’Accord de Paris. Ses performances ESG lui ont valu une inclusion continue dans les indices Dow Jones Sustainability Index (DJSI) et FTSE4Good.</t>
+  </si>
+  <si>
+    <t>Elle figure sur la "Climate Change A List" du CDP pour la quatrième année consécutive et a rejoint l’initiative internationale RE100, s’engageant à utiliser 100 % d’énergie renouvelable. En partenariat avec Danone, elle utilise son produit AjiPro®-L pour réduire les émissions agricoles, réduisant les émissions de protoxyde d’azote d’environ 25 % et améliorant l'efficacité des additifs anti-méthane de 30 %.</t>
+  </si>
+  <si>
+    <t>L’entreprise a atteint la neutralité carbone en 2023 et a rejoint la Net-Zero Banking Alliance des Nations Unies. Durant l’exercice 2022-2023, tous les nouveaux investissements en gestion d’actifs ont été sélectionnés selon des critères financiers et ESG. De plus, 100 % de l’énergie utilisée provient de sources renouvelables.</t>
+  </si>
+  <si>
+    <t>En 2023, elle a publié un cadre d’obligations vertes, sociales et durables, avec un avis positif de ISS ESG. Elle soutient les projets d’énergies renouvelables et vise la neutralité carbone. Socialement, elle promeut la diversité et met en place des programmes internes pour la satisfaction des employés.</t>
+  </si>
+  <si>
+    <t>Dans le domaine ESG, Allegro s’est fixé des objectifs environnementaux visant une réduction de 38 % de ses émissions de gaz à effet de serre d’ici 2030. L’entreprise encourage également les emballages durables, avec 3,7 millions de colis durables fournis en 2022. Sur le plan social, elle a lancé le programme "TOP WOMEN in e-business" pour soutenir les femmes dans le secteur du commerce en ligne.</t>
   </si>
 </sst>
 </file>
@@ -785,18 +676,17 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1174,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5315B1C-8FCF-4906-BAA2-D53CE5F82CB7}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="51" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1234,8 +1124,12 @@
       <c r="F2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -1302,8 +1196,12 @@
       <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -1334,8 +1232,12 @@
       <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -1366,8 +1268,12 @@
       <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -1402,7 +1308,7 @@
         <v>103</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -1434,8 +1340,12 @@
       <c r="F8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -1466,8 +1376,12 @@
       <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -1498,8 +1412,12 @@
       <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -1530,8 +1448,12 @@
       <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -1562,8 +1484,12 @@
       <c r="F12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -1594,8 +1520,12 @@
       <c r="F13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -1626,8 +1556,12 @@
       <c r="F14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -1694,8 +1628,12 @@
       <c r="F16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -1730,7 +1668,7 @@
         <v>120</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -1766,7 +1704,7 @@
         <v>108</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -1838,7 +1776,7 @@
         <v>107</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -1874,7 +1812,7 @@
         <v>106</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -1910,7 +1848,7 @@
         <v>117</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -1982,7 +1920,7 @@
         <v>102</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -2014,8 +1952,12 @@
       <c r="F25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -2082,8 +2024,12 @@
       <c r="F27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="G27" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -2114,8 +2060,12 @@
       <c r="F28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="G28" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -2186,7 +2136,7 @@
         <v>100</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>

--- a/Finance verte.xlsx
+++ b/Finance verte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Popcorn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402F4D18-B74E-459E-A9A2-314558252441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4916AAB2-F298-4308-99A3-BA1CE2596C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{143CC39E-E5C7-42CB-B207-3E7F29217F50}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{143CC39E-E5C7-42CB-B207-3E7F29217F50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="166">
   <si>
     <t>Country</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -72,10 +72,6 @@
     <t>AB Sagax</t>
   </si>
   <si>
-    <t>SAGA A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Real Estate Management &amp; Services</t>
   </si>
   <si>
@@ -117,10 +113,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ADM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Property &amp; Casualty Insurance</t>
   </si>
   <si>
@@ -187,10 +179,6 @@
     <t>Airbus SE</t>
   </si>
   <si>
-    <t>AIR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Aerospace &amp; Defense</t>
   </si>
   <si>
@@ -230,10 +218,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>A17U</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Real Estate Management &amp; Services</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -245,17 +229,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TEMN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Holcim AG</t>
   </si>
   <si>
-    <t>HOLN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Construction Materials</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -274,28 +250,12 @@
     <t>MEDIOBANCA BANCA DI CREDITO FINANZIARIO SOCIETA PER AZIONI</t>
   </si>
   <si>
-    <t>MB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BANCO BPM SOCIETA PER AZIONI</t>
   </si>
   <si>
-    <t>BAMI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>POSTE ITALIANE - SOCIETA PER AZIONI</t>
   </si>
   <si>
-    <t>PST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AL0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Allegro.eu SA</t>
   </si>
   <si>
@@ -336,10 +296,6 @@
   </si>
   <si>
     <t>Interglobe Aviation Ltd</t>
-  </si>
-  <si>
-    <t>INDIGO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ANA HOLDINGS INC.</t>
@@ -617,6 +573,78 @@
   </si>
   <si>
     <t>Dans le domaine ESG, Allegro s’est fixé des objectifs environnementaux visant une réduction de 38 % de ses émissions de gaz à effet de serre d’ici 2030. L’entreprise encourage également les emballages durables, avec 3,7 millions de colis durables fournis en 2022. Sur le plan social, elle a lancé le programme "TOP WOMEN in e-business" pour soutenir les femmes dans le secteur du commerce en ligne.</t>
+  </si>
+  <si>
+    <t>SAGA-B.ST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACGBY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATEYY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2395.TW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADM.L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300999.SZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIR.PA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A17U.SI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMN.SW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOLN.SW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2802.T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MB.MI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAMI.MI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PST.MI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALE.WA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2588.HK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INDIGO.NS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9202.T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1064,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5315B1C-8FCF-4906-BAA2-D53CE5F82CB7}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="124" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1090,45 +1118,45 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -1149,22 +1177,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -1179,28 +1207,28 @@
     </row>
     <row r="4" spans="1:18" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4">
-        <v>601288</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -1215,28 +1243,28 @@
     </row>
     <row r="5" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4">
-        <v>6857</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -1251,28 +1279,28 @@
     </row>
     <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2395</v>
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -1287,28 +1315,28 @@
     </row>
     <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -1323,28 +1351,28 @@
     </row>
     <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -1359,28 +1387,28 @@
     </row>
     <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -1395,28 +1423,28 @@
     </row>
     <row r="10" spans="1:18" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -1431,28 +1459,28 @@
     </row>
     <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -1467,28 +1495,28 @@
     </row>
     <row r="12" spans="1:18" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="4">
-        <v>300999</v>
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -1503,28 +1531,28 @@
     </row>
     <row r="13" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="G13" s="6" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1539,28 +1567,28 @@
     </row>
     <row r="14" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1575,28 +1603,28 @@
     </row>
     <row r="15" spans="1:18" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1611,28 +1639,28 @@
     </row>
     <row r="16" spans="1:18" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="G16" s="6" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -1647,28 +1675,28 @@
     </row>
     <row r="17" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -1683,28 +1711,28 @@
     </row>
     <row r="18" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -1719,28 +1747,28 @@
     </row>
     <row r="19" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -1755,28 +1783,28 @@
     </row>
     <row r="20" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="4">
-        <v>2802</v>
+        <v>57</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -1791,28 +1819,28 @@
     </row>
     <row r="21" spans="1:18" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -1827,28 +1855,28 @@
     </row>
     <row r="22" spans="1:18" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -1863,28 +1891,28 @@
     </row>
     <row r="23" spans="1:18" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -1899,28 +1927,28 @@
     </row>
     <row r="24" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -1935,28 +1963,28 @@
     </row>
     <row r="25" spans="1:18" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -1971,28 +1999,28 @@
     </row>
     <row r="26" spans="1:18" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -2007,28 +2035,28 @@
     </row>
     <row r="27" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="4">
-        <v>2588</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -2043,28 +2071,28 @@
     </row>
     <row r="28" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
@@ -2079,28 +2107,28 @@
     </row>
     <row r="29" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="4">
-        <v>9202</v>
+        <v>75</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -2115,28 +2143,28 @@
     </row>
     <row r="30" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="H30" s="6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
